--- a/Benchtop-v2/parts-list/Telecentric_Lens_Overview.xlsx
+++ b/Benchtop-v2/parts-list/Telecentric_Lens_Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\Nikita-UZH\mesoSPIM\benchtop-mesoSPIM\Lenses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Documents\GitHub\mesoSPIM-bt-hardware\Benchtop-v2\parts-list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E699A3-65A5-49F0-89DA-F2454C71622B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFAC5A-2E03-4C7E-AD1B-FA8063F99B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="6648" windowWidth="34560" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5352" yWindow="5172" windowWidth="33204" windowHeight="15168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="A3:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
